--- a/assets/emails.xlsx
+++ b/assets/emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2AA3B9-44B8-204B-9FA7-8B7C407901EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DAF84-EDC7-A741-874C-0074832F39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{7ECA1B42-3FF9-B84B-BF86-F95B6FACAE12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>kmatosluna1701@westfield.ma.edu</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve"> lmorano9503@westfield.ma.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> npearse2273@westfield.ma.edu</t>
   </si>
   <si>
     <t xml:space="preserve"> emelnik3284@westfield.ma.edu</t>
@@ -459,13 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980CDA0F-5701-194C-92FC-C96CAAADCFE7}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -582,11 +582,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/emails.xlsx
+++ b/assets/emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DAF84-EDC7-A741-874C-0074832F39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1D0A2-B151-CA47-A936-EB2F74455932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{7ECA1B42-3FF9-B84B-BF86-F95B6FACAE12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{7ECA1B42-3FF9-B84B-BF86-F95B6FACAE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>kmatosluna1701@westfield.ma.edu</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve"> hparker2713@westfield.ma.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> npearse2273@westfield.ma.edu</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980CDA0F-5701-194C-92FC-C96CAAADCFE7}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,16 +572,21 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
